--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_361__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_361__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,79 +5873,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>17.98906135559082</c:v>
+                  <c:v>17.98905754089355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.98451042175293</c:v>
+                  <c:v>28.98450088500977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.63516235351562</c:v>
+                  <c:v>27.63515853881836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.35142707824707</c:v>
+                  <c:v>16.35142517089844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.62129974365234</c:v>
+                  <c:v>29.62130355834961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.38709259033203</c:v>
+                  <c:v>18.38707733154297</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21.85150718688965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.37925148010254</c:v>
+                  <c:v>17.37925720214844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.7182559967041</c:v>
+                  <c:v>16.71824836730957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.36265563964844</c:v>
+                  <c:v>16.36266136169434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.90116119384766</c:v>
+                  <c:v>20.90115928649902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.20776557922363</c:v>
+                  <c:v>22.20776176452637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.25153732299805</c:v>
+                  <c:v>26.25153923034668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.4715747833252</c:v>
+                  <c:v>18.47156715393066</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>17.66217231750488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.29438018798828</c:v>
+                  <c:v>20.29436683654785</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.46298408508301</c:v>
+                  <c:v>19.46297264099121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.34589195251465</c:v>
+                  <c:v>15.34590816497803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.17325401306152</c:v>
+                  <c:v>14.17326545715332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.6239070892334</c:v>
+                  <c:v>17.62390518188477</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.95969772338867</c:v>
+                  <c:v>21.95969390869141</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.61829376220703</c:v>
+                  <c:v>20.61828994750977</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.29898071289062</c:v>
+                  <c:v>18.29897689819336</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>22.38543701171875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.24876880645752</c:v>
+                  <c:v>9.248754501342773</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>14.71286296844482</c:v>
@@ -5954,208 +5954,208 @@
                   <c:v>16.67495346069336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.10364723205566</c:v>
+                  <c:v>18.1036491394043</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.44110679626465</c:v>
+                  <c:v>17.44111633300781</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.05406761169434</c:v>
+                  <c:v>16.05407333374023</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28.72042655944824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.81892776489258</c:v>
+                  <c:v>18.81894683837891</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.00406455993652</c:v>
+                  <c:v>17.00406074523926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.7976131439209</c:v>
+                  <c:v>17.79761505126953</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.57736396789551</c:v>
+                  <c:v>21.57735824584961</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>15.77476978302002</c:v>
+                  <c:v>15.7747745513916</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.14322376251221</c:v>
+                  <c:v>13.14323997497559</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.76823616027832</c:v>
+                  <c:v>25.76824951171875</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>17.0157585144043</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.60250282287598</c:v>
+                  <c:v>17.60249519348145</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>28.51263046264648</c:v>
+                  <c:v>28.51263427734375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.14168739318848</c:v>
+                  <c:v>20.14167213439941</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.45004653930664</c:v>
+                  <c:v>21.45004081726074</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.7683048248291</c:v>
+                  <c:v>17.768310546875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>19.97077369689941</c:v>
+                  <c:v>19.97076988220215</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>19.70114898681641</c:v>
+                  <c:v>19.70115280151367</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.24724006652832</c:v>
+                  <c:v>30.24724578857422</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.63492965698242</c:v>
+                  <c:v>21.63492012023926</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.83643341064453</c:v>
+                  <c:v>17.8364372253418</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>22.25362586975098</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>19.80608367919922</c:v>
+                  <c:v>19.80608177185059</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.55225849151611</c:v>
+                  <c:v>15.55225372314453</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.0376148223877</c:v>
+                  <c:v>19.03761291503906</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>17.21266174316406</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>17.18463516235352</c:v>
+                  <c:v>17.18463706970215</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.92098808288574</c:v>
+                  <c:v>22.92097282409668</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.76848220825195</c:v>
+                  <c:v>22.76847839355469</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.69262790679932</c:v>
+                  <c:v>14.69261646270752</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.558013916015625</c:v>
+                  <c:v>6.558011531829834</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.10492897033691</c:v>
+                  <c:v>21.10494041442871</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.17602157592773</c:v>
+                  <c:v>18.17602729797363</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.19988250732422</c:v>
+                  <c:v>31.19987487792969</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11.91602039337158</c:v>
+                  <c:v>11.91600704193115</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.53136253356934</c:v>
+                  <c:v>18.5313663482666</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>16.73134613037109</c:v>
+                  <c:v>16.73134803771973</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.34205627441406</c:v>
+                  <c:v>17.34206771850586</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>17.70028114318848</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.90471458435059</c:v>
+                  <c:v>17.90471267700195</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35.24887847900391</c:v>
+                  <c:v>35.24887084960938</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21.7533130645752</c:v>
+                  <c:v>21.7533073425293</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26.15151786804199</c:v>
+                  <c:v>26.15150833129883</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15.71001434326172</c:v>
+                  <c:v>15.71001148223877</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.32261753082275</c:v>
+                  <c:v>15.32262516021729</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>29.81375885009766</c:v>
+                  <c:v>29.81375503540039</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.62354469299316</c:v>
+                  <c:v>19.62353706359863</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>23.45704650878906</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.94704055786133</c:v>
+                  <c:v>21.94705009460449</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>16.53493499755859</c:v>
+                  <c:v>16.53495407104492</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.25115776062012</c:v>
+                  <c:v>17.25115203857422</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.75116729736328</c:v>
+                  <c:v>20.75116539001465</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21.93512344360352</c:v>
+                  <c:v>21.93511772155762</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28.7442455291748</c:v>
+                  <c:v>28.7442569732666</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19.65504264831543</c:v>
+                  <c:v>19.65503311157227</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>17.62546539306641</c:v>
+                  <c:v>17.62545585632324</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>17.35956954956055</c:v>
+                  <c:v>17.35956382751465</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20.45417594909668</c:v>
+                  <c:v>20.45417976379395</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>18.03440475463867</c:v>
+                  <c:v>18.03439712524414</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21.49542045593262</c:v>
+                  <c:v>21.49541854858398</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>16.81049919128418</c:v>
+                  <c:v>16.81050300598145</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16.38791084289551</c:v>
+                  <c:v>16.38791656494141</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>25.55227470397949</c:v>
+                  <c:v>25.55227088928223</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.69850730895996</c:v>
+                  <c:v>15.69851684570312</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>16.40373229980469</c:v>
+                  <c:v>16.40373992919922</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>16.47737503051758</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.65574836730957</c:v>
+                  <c:v>16.6557445526123</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>21.8155632019043</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>17.19331932067871</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.25382804870605</c:v>
+                  <c:v>16.25382041931152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.98906135559082</v>
+        <v>17.98905754089355</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>28.98451042175293</v>
+        <v>28.98450088500977</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.63516235351562</v>
+        <v>27.63515853881836</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.35142707824707</v>
+        <v>16.35142517089844</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>29.62129974365234</v>
+        <v>29.62130355834961</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.38709259033203</v>
+        <v>18.38707733154297</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.37925148010254</v>
+        <v>17.37925720214844</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.7182559967041</v>
+        <v>16.71824836730957</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.36265563964844</v>
+        <v>16.36266136169434</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.90116119384766</v>
+        <v>20.90115928649902</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>22.20776557922363</v>
+        <v>22.20776176452637</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.25153732299805</v>
+        <v>26.25153923034668</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.4715747833252</v>
+        <v>18.47156715393066</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>20.29438018798828</v>
+        <v>20.29436683654785</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.46298408508301</v>
+        <v>19.46297264099121</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>15.34589195251465</v>
+        <v>15.34590816497803</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>14.17325401306152</v>
+        <v>14.17326545715332</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.6239070892334</v>
+        <v>17.62390518188477</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.95969772338867</v>
+        <v>21.95969390869141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.61829376220703</v>
+        <v>20.61828994750977</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.29898071289062</v>
+        <v>18.29897689819336</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>9.24876880645752</v>
+        <v>9.248754501342773</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18.10364723205566</v>
+        <v>18.1036491394043</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>17.44110679626465</v>
+        <v>17.44111633300781</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>16.05406761169434</v>
+        <v>16.05407333374023</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>18.81892776489258</v>
+        <v>18.81894683837891</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>17.00406455993652</v>
+        <v>17.00406074523926</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>17.7976131439209</v>
+        <v>17.79761505126953</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>21.57736396789551</v>
+        <v>21.57735824584961</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>15.77476978302002</v>
+        <v>15.7747745513916</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.14322376251221</v>
+        <v>13.14323997497559</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>25.76823616027832</v>
+        <v>25.76824951171875</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>17.60250282287598</v>
+        <v>17.60249519348145</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>28.51263046264648</v>
+        <v>28.51263427734375</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>20.14168739318848</v>
+        <v>20.14167213439941</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>21.45004653930664</v>
+        <v>21.45004081726074</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>17.7683048248291</v>
+        <v>17.768310546875</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>19.97077369689941</v>
+        <v>19.97076988220215</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>19.70114898681641</v>
+        <v>19.70115280151367</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>30.24724006652832</v>
+        <v>30.24724578857422</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>21.63492965698242</v>
+        <v>21.63492012023926</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>17.83643341064453</v>
+        <v>17.8364372253418</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>19.80608367919922</v>
+        <v>19.80608177185059</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.55225849151611</v>
+        <v>15.55225372314453</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>19.0376148223877</v>
+        <v>19.03761291503906</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>17.18463516235352</v>
+        <v>17.18463706970215</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>22.92098808288574</v>
+        <v>22.92097282409668</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>22.76848220825195</v>
+        <v>22.76847839355469</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>14.69262790679932</v>
+        <v>14.69261646270752</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>6.558013916015625</v>
+        <v>6.558011531829834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.10492897033691</v>
+        <v>21.10494041442871</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>18.17602157592773</v>
+        <v>18.17602729797363</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>31.19988250732422</v>
+        <v>31.19987487792969</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>11.91602039337158</v>
+        <v>11.91600704193115</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.53136253356934</v>
+        <v>18.5313663482666</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>16.73134613037109</v>
+        <v>16.73134803771973</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>17.34205627441406</v>
+        <v>17.34206771850586</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.90471458435059</v>
+        <v>17.90471267700195</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>35.24887847900391</v>
+        <v>35.24887084960938</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>21.7533130645752</v>
+        <v>21.7533073425293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>26.15151786804199</v>
+        <v>26.15150833129883</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>15.71001434326172</v>
+        <v>15.71001148223877</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.32261753082275</v>
+        <v>15.32262516021729</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>29.81375885009766</v>
+        <v>29.81375503540039</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>19.62354469299316</v>
+        <v>19.62353706359863</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>21.94704055786133</v>
+        <v>21.94705009460449</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>16.53493499755859</v>
+        <v>16.53495407104492</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>17.25115776062012</v>
+        <v>17.25115203857422</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>20.75116729736328</v>
+        <v>20.75116539001465</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>21.93512344360352</v>
+        <v>21.93511772155762</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>28.7442455291748</v>
+        <v>28.7442569732666</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>19.65504264831543</v>
+        <v>19.65503311157227</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>17.62546539306641</v>
+        <v>17.62545585632324</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>17.35956954956055</v>
+        <v>17.35956382751465</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>20.45417594909668</v>
+        <v>20.45417976379395</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>18.03440475463867</v>
+        <v>18.03439712524414</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>21.49542045593262</v>
+        <v>21.49541854858398</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>16.81049919128418</v>
+        <v>16.81050300598145</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>16.38791084289551</v>
+        <v>16.38791656494141</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>25.55227470397949</v>
+        <v>25.55227088928223</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>15.69850730895996</v>
+        <v>15.69851684570312</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>16.40373229980469</v>
+        <v>16.40373992919922</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>16.65574836730957</v>
+        <v>16.6557445526123</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>16.25382804870605</v>
+        <v>16.25382041931152</v>
       </c>
     </row>
     <row r="100" spans="1:6">
